--- a/Diagramme_de_gantt/Gantt.xlsx
+++ b/Diagramme_de_gantt/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARN\Desktop\Projet 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69D4345F-284D-4001-BDC7-FEB2B771EDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9619AFBF-8EF5-42AB-96C0-EF6488F6854E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BD65B3BC-1314-4754-8D67-18EFFCCF3430}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>Tache</t>
   </si>
@@ -641,7 +641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6CD20C-9F81-462A-AC5B-FDEEE4005756}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -704,7 +706,7 @@
         <v>45985</v>
       </c>
       <c r="D2" s="2">
-        <v>45986</v>
+        <v>45987</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -721,9 +723,7 @@
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
@@ -756,9 +756,7 @@
       <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
@@ -826,9 +824,7 @@
       <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
         <v>15</v>
       </c>
@@ -861,9 +857,7 @@
       <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
         <v>15</v>
       </c>
@@ -911,7 +905,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="2">
-        <v>45995</v>
+        <v>45994</v>
       </c>
       <c r="D8" s="2">
         <v>45999</v>
@@ -931,9 +925,7 @@
       <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
         <v>15</v>
       </c>
@@ -949,7 +941,7 @@
         <v>45999</v>
       </c>
       <c r="D9" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="E9">
         <v>0.35</v>
@@ -966,9 +958,7 @@
       <c r="I9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1001,9 +991,7 @@
       <c r="I10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
         <v>36</v>
       </c>
@@ -1051,7 +1039,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="2">
-        <v>46007</v>
+        <v>46006</v>
       </c>
       <c r="D12" s="2">
         <v>46008</v>
@@ -1071,9 +1059,7 @@
       <c r="I12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1106,9 +1092,7 @@
       <c r="I13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1176,9 +1160,7 @@
       <c r="I15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
         <v>36</v>
       </c>
